--- a/Data Analysis/Excel/sep28.xlsx
+++ b/Data Analysis/Excel/sep28.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alakh Pandya\Desktop\Batches\2023_DS_Ashesh_Gunjan\Data Analysis\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226DE345-B860-4FE1-90F6-80DBAF3D4E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF64CD26-6226-4F4B-8EB8-35879A413567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{07CCDE5A-85B7-4736-9AEB-0295D429D5AE}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>Student No</t>
   </si>
@@ -91,6 +91,15 @@
   </si>
   <si>
     <t>Column7</t>
+  </si>
+  <si>
+    <t>Number of students who gave exam of subject 1</t>
+  </si>
+  <si>
+    <t>Number of students having attendance exactly 8%</t>
+  </si>
+  <si>
+    <t>No of students who scored atleast 25 in sub1 but could not score more than 20 in sub2</t>
   </si>
 </sst>
 </file>
@@ -155,8 +164,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EF78322A-280D-4552-9000-09143FE23B9F}" name="Table1" displayName="Table1" ref="A19:G31" totalsRowShown="0">
-  <autoFilter ref="A19:G31" xr:uid="{EF78322A-280D-4552-9000-09143FE23B9F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EF78322A-280D-4552-9000-09143FE23B9F}" name="Table1" displayName="Table1" ref="A20:G32" totalsRowShown="0">
+  <autoFilter ref="A20:G32" xr:uid="{EF78322A-280D-4552-9000-09143FE23B9F}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{EAE3A114-7394-4EE7-8B8B-6DA0BF64B863}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{98AA9710-AFCD-4E7C-A8BB-E762DFC4A120}" name="Column2"/>
@@ -467,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{889FF1A3-F7EF-4C13-8BB0-FF6BBFB90521}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -542,6 +551,14 @@
       <c r="H2" t="s">
         <v>10</v>
       </c>
+      <c r="I2">
+        <f>IF(F2&gt;70, D2+$E$2, D2)</f>
+        <v>54</v>
+      </c>
+      <c r="J2">
+        <f>SUM(G2:G17)</f>
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -551,11 +568,15 @@
         <v>31</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D15" si="0">B3+C3</f>
+        <f>B3+C3</f>
         <v>31</v>
       </c>
       <c r="F3">
         <v>68</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I15" si="0">IF(F3&gt;70, D3+$E$2, D3)</f>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -572,11 +593,19 @@
         <v>30</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D4:D15" si="1">B4+C4</f>
         <v>44</v>
       </c>
       <c r="F4">
         <v>77</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="J4">
+        <f>COUNT(C2:C15)</f>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -590,7 +619,7 @@
         <v>33</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="F5">
@@ -599,8 +628,12 @@
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
       <c r="J5" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -614,7 +647,7 @@
         <v>32</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="F6">
@@ -624,6 +657,14 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="J6">
+        <f>COUNT(B2:B15)</f>
         <v>10</v>
       </c>
     </row>
@@ -635,7 +676,7 @@
         <v>34</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="F7">
@@ -646,6 +687,10 @@
       </c>
       <c r="H7" t="s">
         <v>10</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -659,7 +704,7 @@
         <v>21</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="F8">
@@ -667,6 +712,10 @@
       </c>
       <c r="G8">
         <v>1</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>41</v>
       </c>
       <c r="J8" t="s">
         <v>12</v>
@@ -677,17 +726,25 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C9">
         <v>10</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
-        <v>32</v>
+        <f t="shared" si="1"/>
+        <v>35</v>
       </c>
       <c r="F9">
         <v>33</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="J9">
+        <f>COUNTA(H2:H15)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -701,7 +758,7 @@
         <v>12</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="F10">
@@ -713,6 +770,10 @@
       <c r="H10" t="s">
         <v>10</v>
       </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
       <c r="J10" t="s">
         <v>13</v>
       </c>
@@ -722,17 +783,25 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>11</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
-        <v>29</v>
+        <f t="shared" si="1"/>
+        <v>37</v>
       </c>
       <c r="F11">
         <v>42</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="J11">
+        <f>COUNTIF(F2:F15, "&gt;=70")</f>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -743,7 +812,7 @@
         <v>17</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="F12">
@@ -755,7 +824,13 @@
       <c r="H12" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="1"/>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="J12" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -768,7 +843,7 @@
         <v>27</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="F13">
@@ -776,6 +851,14 @@
       </c>
       <c r="H13" t="s">
         <v>10</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="J13" s="1">
+        <f>COUNTIF(F2:F15, 8)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -786,7 +869,7 @@
         <v>29</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="F14">
@@ -797,6 +880,13 @@
       </c>
       <c r="H14" t="s">
         <v>10</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="J14" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -810,7 +900,7 @@
         <v>9</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="F15">
@@ -822,27 +912,35 @@
       <c r="H15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="J15">
+        <f>COUNTIFS(B2:B15, "&gt;=25", C2:C15, "&lt;=20")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>14</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>15</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>16</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>17</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E20" t="s">
         <v>18</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F20" t="s">
         <v>19</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G20" t="s">
         <v>20</v>
       </c>
     </row>
